--- a/src/main/resources/FetchData/API_Billeri_OCNS00000TMN02.xlsx
+++ b/src/main/resources/FetchData/API_Billeri_OCNS00000TMN02.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sonya\eclipse-workspace\Bundle_Automation_Projects\src\main\resources\FetchData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C250233-AC4F-4882-905F-BD85621A06EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3C7132-6682-4678-B77A-A7EF9D46E996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
   <si>
     <t>RequestType</t>
   </si>
@@ -249,10 +249,13 @@
     <t>null</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>100000</t>
   </si>
   <si>
-    <t>0</t>
+    <t>-100000</t>
   </si>
 </sst>
 </file>
@@ -586,10 +589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AN2"/>
+  <dimension ref="A1:AN3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" activeCellId="1" sqref="A3:XFD7 C17"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="41.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,10 +788,10 @@
         <v>35</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>20</v>
@@ -878,6 +881,128 @@
         <v>71</v>
       </c>
       <c r="AN2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="1">
+        <v>123456789</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>73</v>
       </c>
     </row>
